--- a/data/plan_inputs/unbounded_bounds.xlsx
+++ b/data/plan_inputs/unbounded_bounds.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\NVG9HXP\Documents\Projects\UPS_MV\data\plan_inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1A73C2EE-7B5B-4528-BB18-7271303DF848}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6A25F6D-8C55-4979-A280-F751D8DC052D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="IBT" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
     <definedName name="Funded_Status_Loadings">'[1]Factor Loadings'!$B$8:$B$23</definedName>
     <definedName name="Liability_OAD">[1]Control!$B$6</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" calcOnSave="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -2782,8 +2782,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2878,7 +2878,7 @@
         <v>0</v>
       </c>
       <c r="C8" s="2">
-        <v>1</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
@@ -2935,7 +2935,7 @@
   <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C12"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3030,7 +3030,7 @@
         <v>0</v>
       </c>
       <c r="C8" s="2">
-        <v>1</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
@@ -3086,8 +3086,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36FB3E76-67FD-49C8-BA1C-08AF9388B001}">
   <dimension ref="A1:C12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3182,7 +3182,7 @@
         <v>0</v>
       </c>
       <c r="C8" s="2">
-        <v>1</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
